--- a/Exerc_Chebichev.xlsx
+++ b/Exerc_Chebichev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LUCAS 2023\ADS-III\ESTATÍSTICA APLICADA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LUCAS 2023\ADS-III\ESTATISTICA-APLICADA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF8E7D6-86FC-474C-A5E2-44F7704911ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B796D3-B70D-460E-8541-D68B2CBCF8E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Tab 1: Distribuição de valores de consumo em 54 notas fiscais</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Exercícios:</t>
   </si>
   <si>
-    <t>entre quais valores deve estar o conteúdo de tiamina de</t>
-  </si>
-  <si>
     <t>a-) ao menos 35/36 de todas as fatias desse pão;</t>
   </si>
   <si>
@@ -99,22 +96,58 @@
     <t>de vôos entre as duas cidades chegam entre</t>
   </si>
   <si>
-    <t>a-) 2,6 min atrasados e 8,2 min atrasados; (b) 1,6 min mais cedo e 12,4 min atrasados?</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Um estudo do valor nutritivo de certo tipo de pão mostra que, em média, uma fatia contém 0,260 mg de tiamina(vitamina B1) com desvio padrão de 0,005 mg. Com base no teorema de Chebychev, entre quais valores deve estar o conteúdo de tiamina de </t>
   </si>
   <si>
-    <t>de tiamina(vitamina B1) com desvio padrão de 0,005 mg. Com base no teorema de Chebychev</t>
+    <t>x</t>
+  </si>
+  <si>
+    <t>k=6</t>
+  </si>
+  <si>
+    <t>xmin=</t>
+  </si>
+  <si>
+    <t>xmax=</t>
+  </si>
+  <si>
+    <t>entre 0,23 e 0,29</t>
+  </si>
+  <si>
+    <t>1-1/k^2=35/36</t>
+  </si>
+  <si>
+    <t>1-1/k^2=80/81</t>
+  </si>
+  <si>
+    <t>k=9</t>
+  </si>
+  <si>
+    <t>entre 0,215 e 0,305</t>
+  </si>
+  <si>
+    <t>k=</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>a-) 2,6 min atrasados e 8,2 min atrasados;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (b) 1,6 min mais cedo e 12,4 min atrasados?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -169,12 +202,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -193,11 +227,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
+    <cellStyle name="Vírgula" xfId="3" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -499,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H29"/>
+  <dimension ref="A2:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,6 +560,8 @@
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -554,7 +606,7 @@
         <f>D4*E4</f>
         <v>250</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="11">
         <f>(D4-$D$12)^2*E4</f>
         <v>38485.939643347054</v>
       </c>
@@ -704,71 +756,205 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="18" spans="1:15" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I20" s="15">
+        <v>36</v>
+      </c>
+      <c r="J20" s="15">
+        <v>100</v>
+      </c>
+      <c r="K20" s="15">
+        <f>I21*J20/I20</f>
+        <v>97.222222222222229</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="15">
+        <f>0.26-6*0.005</f>
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I21" s="15">
+        <v>35</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="M21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="15">
+        <f>0.26+6*0.005</f>
+        <v>0.29000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="15">
+        <v>81</v>
+      </c>
+      <c r="J23" s="15">
+        <v>100</v>
+      </c>
+      <c r="K23" s="15">
+        <f>I24*J23/I23</f>
+        <v>98.76543209876543</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="N23" s="15">
+        <f>0.26-9*0.005</f>
+        <v>0.21500000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I24" s="15">
+        <v>80</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="15">
+        <f>0.26+9*0.005</f>
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="I27" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27">
+        <f>(0.26-0.245)/0.005</f>
+        <v>3.0000000000000027</v>
+      </c>
+      <c r="L27" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="13"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D28" s="17">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>25</v>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="13">
+        <v>0.96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A18:H18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
